--- a/Original/CN/Game/Note.xlsx
+++ b/Original/CN/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.120</t>
+    <t xml:space="preserve">EA 23.129</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Original/CN/Game/Note.xlsx
+++ b/Original/CN/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.129</t>
+    <t xml:space="preserve">EA 23.152</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Original/CN/Game/Note.xlsx
+++ b/Original/CN/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.152</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Original/CN/Game/Note.xlsx
+++ b/Original/CN/Game/Note.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.200</t>
+    <t xml:space="preserve">EA 23.252</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>
@@ -128,10 +128,19 @@
     <t xml:space="preserve">hotspring_meditation</t>
   </si>
   <si>
-    <t xml:space="preserve">Hot spring meditation will warm you from the inside out!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">温泉で瞑想すれば、心も体もほっこり</t>
+    <t xml:space="preserve">Take a "Rest" at the hot spring to warm you from the inside out!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">温泉で「休憩」すれば、心も体もほっこり</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pond_carp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Carp Pond </t>
+  </si>
+  <si>
+    <t xml:space="preserve">鯉の池</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 11.1</t>
@@ -155,7 +164,10 @@
     <t xml:space="preserve">Alpha 21.6</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.27 fix 2</t>
+    <t xml:space="preserve">EA 23.242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.232</t>
   </si>
   <si>
     <t xml:space="preserve">帕罗米亚王立士官宿舍</t>
@@ -188,7 +200,10 @@
     <t xml:space="preserve">要放很多进来哦</t>
   </si>
   <si>
-    <t xml:space="preserve">在温泉中冥想，可以温暖身心。</t>
+    <t xml:space="preserve">在温泉中休息，可以温暖身心。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鲤鱼池</t>
   </si>
 </sst>
 </file>
@@ -285,10 +300,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -302,10 +317,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -319,10 +334,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -336,10 +351,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -353,10 +368,10 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
@@ -370,10 +385,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -387,10 +402,10 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -404,10 +419,10 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
@@ -421,10 +436,10 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
         <v>31</v>
@@ -438,10 +453,10 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
         <v>34</v>
@@ -455,16 +470,33 @@
         <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
         <v>37</v>
       </c>
       <c r="E13" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Original/CN/Game/Note.xlsx
+++ b/Original/CN/Game/Note.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.252</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>
@@ -128,19 +128,10 @@
     <t xml:space="preserve">hotspring_meditation</t>
   </si>
   <si>
-    <t xml:space="preserve">Take a "Rest" at the hot spring to warm you from the inside out!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">温泉で「休憩」すれば、心も体もほっこり</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pond_carp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Carp Pond </t>
-  </si>
-  <si>
-    <t xml:space="preserve">鯉の池</t>
+    <t xml:space="preserve">Hot spring meditation will warm you from the inside out!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">温泉で瞑想すれば、心も体もほっこり</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 11.1</t>
@@ -164,10 +155,7 @@
     <t xml:space="preserve">Alpha 21.6</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.232</t>
+    <t xml:space="preserve">EA 23.27 fix 2</t>
   </si>
   <si>
     <t xml:space="preserve">帕罗米亚王立士官宿舍</t>
@@ -200,10 +188,7 @@
     <t xml:space="preserve">要放很多进来哦</t>
   </si>
   <si>
-    <t xml:space="preserve">在温泉中休息，可以温暖身心。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鲤鱼池</t>
+    <t xml:space="preserve">在温泉中冥想，可以温暖身心。</t>
   </si>
 </sst>
 </file>
@@ -300,10 +285,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -317,10 +302,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -334,10 +319,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -351,10 +336,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -368,10 +353,10 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
@@ -385,10 +370,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -402,10 +387,10 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -419,10 +404,10 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
@@ -436,10 +421,10 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
         <v>31</v>
@@ -453,10 +438,10 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
         <v>34</v>
@@ -470,33 +455,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
         <v>37</v>
       </c>
       <c r="E13" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
